--- a/Calendario2023/Actividades/Actividad6_Cableado_estructurado/act5.xlsx
+++ b/Calendario2023/Actividades/Actividad6_Cableado_estructurado/act5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Interconexion\Calendario2022\Actividades\Actividad6_Cableado_estructurado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Interconexion\Calendario2023\Actividades\Actividad6_Cableado_estructurado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4DE0C2-7620-4B6F-8307-4DA80907256A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0C6C2E-F625-4E5B-B553-6F7252B6C3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB1E1576-0C02-43EA-9ECE-F81693895290}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>dos conexiones</t>
   </si>
@@ -85,6 +85,36 @@
   </si>
   <si>
     <t>Canaleta Vertical</t>
+  </si>
+  <si>
+    <t>0 y 1</t>
+  </si>
+  <si>
+    <t>Podium y Mesa 1</t>
+  </si>
+  <si>
+    <t>2 y 3</t>
+  </si>
+  <si>
+    <t>Podium y Mesa 2</t>
+  </si>
+  <si>
+    <t>4 y 5</t>
+  </si>
+  <si>
+    <t>Podium y Mesa 3</t>
+  </si>
+  <si>
+    <t>6 y 7</t>
+  </si>
+  <si>
+    <t>Podium y Mesa 4</t>
+  </si>
+  <si>
+    <t>8 y 9</t>
+  </si>
+  <si>
+    <t>Podium y Mesa 5 y 6</t>
   </si>
 </sst>
 </file>
@@ -143,13 +173,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -472,10 +499,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J28"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -662,10 +689,10 @@
       <c r="H12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1089,11 +1116,11 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <f>SUM(D13:D26)</f>
         <v>42</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <f>SUM(H13:H26)</f>
         <v>888.2</v>
       </c>
@@ -1110,6 +1137,46 @@
       <c r="J28">
         <f>I27+J27</f>
         <v>60.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
